--- a/src/data/new_output.xlsx
+++ b/src/data/new_output.xlsx
@@ -1227,13 +1227,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
-        <v>19015559</v>
+        <v>19022181</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -3069,8 +3069,8 @@
       <c r="B112" t="n">
         <v>12</v>
       </c>
-      <c r="C112" t="s">
-        <v>27</v>
+      <c r="C112" t="n">
+        <v>19015559</v>
       </c>
       <c r="D112" t="s">
         <v>10</v>
@@ -3159,13 +3159,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14</v>
-      </c>
-      <c r="C116" t="n">
-        <v>19022181</v>
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>27</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -6448,10 +6448,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C259" t="n">
-        <v>19019122</v>
+        <v>19019474</v>
       </c>
       <c r="D259" t="s">
         <v>17</v>
@@ -6563,16 +6563,16 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C264" t="n">
-        <v>19019474</v>
+        <v>19019124</v>
       </c>
       <c r="D264" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E264" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F264" t="s">
         <v>12</v>
@@ -6678,13 +6678,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>3</v>
-      </c>
-      <c r="C269" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="C269" t="n">
+        <v>19019654</v>
       </c>
       <c r="D269" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E269" t="s">
         <v>32</v>
@@ -6747,13 +6747,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>6</v>
-      </c>
-      <c r="C272" t="n">
-        <v>19019654</v>
+        <v>3</v>
+      </c>
+      <c r="C272" t="s">
+        <v>36</v>
       </c>
       <c r="D272" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E272" t="s">
         <v>32</v>
@@ -6908,16 +6908,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C279" t="n">
-        <v>19019124</v>
+        <v>19019122</v>
       </c>
       <c r="D279" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E279" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F279" t="s">
         <v>12</v>
@@ -7069,13 +7069,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4</v>
-      </c>
-      <c r="C286" t="n">
-        <v>19019474</v>
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>25</v>
       </c>
       <c r="D286" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E286" t="s">
         <v>44</v>
@@ -7759,13 +7759,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>11</v>
-      </c>
-      <c r="C316" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="C316" t="n">
+        <v>19019474</v>
       </c>
       <c r="D316" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E316" t="s">
         <v>44</v>
@@ -7989,10 +7989,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C326" t="n">
-        <v>19022765</v>
+        <v>19022177</v>
       </c>
       <c r="D326" t="s">
         <v>6</v>
@@ -8081,13 +8081,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>9</v>
-      </c>
-      <c r="C330" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="C330" t="n">
+        <v>19022179</v>
       </c>
       <c r="D330" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E330" t="s">
         <v>22</v>
@@ -8242,10 +8242,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C337" t="n">
-        <v>19022177</v>
+        <v>19022765</v>
       </c>
       <c r="D337" t="s">
         <v>6</v>
@@ -8679,13 +8679,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>14</v>
-      </c>
-      <c r="C356" t="n">
-        <v>19022179</v>
+        <v>9</v>
+      </c>
+      <c r="C356" t="s">
+        <v>40</v>
       </c>
       <c r="D356" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E356" t="s">
         <v>22</v>
@@ -11025,13 +11025,13 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C458" t="n">
-        <v>19021865</v>
+        <v>19015559</v>
       </c>
       <c r="D458" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E458" t="s">
         <v>42</v>
@@ -11462,10 +11462,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>2</v>
-      </c>
-      <c r="C477" t="n">
-        <v>19023251</v>
+        <v>3</v>
+      </c>
+      <c r="C477" t="s">
+        <v>20</v>
       </c>
       <c r="D477" t="s">
         <v>14</v>
@@ -11531,10 +11531,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>19005847</v>
+        <v>19021865</v>
       </c>
       <c r="D480" t="s">
         <v>14</v>
@@ -11623,13 +11623,13 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>3</v>
-      </c>
-      <c r="C484" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C484" t="n">
+        <v>19019988</v>
       </c>
       <c r="D484" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E484" t="s">
         <v>42</v>
@@ -11646,13 +11646,13 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C485" t="n">
-        <v>19023253</v>
+        <v>19022181</v>
       </c>
       <c r="D485" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E485" t="s">
         <v>42</v>
@@ -11784,13 +11784,13 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C491" t="n">
-        <v>19023254</v>
+        <v>19019989</v>
       </c>
       <c r="D491" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E491" t="s">
         <v>42</v>
@@ -11807,13 +11807,13 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C492" t="n">
-        <v>19019988</v>
+        <v>19022934</v>
       </c>
       <c r="D492" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E492" t="s">
         <v>42</v>
@@ -11899,13 +11899,13 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C496" t="n">
-        <v>19019989</v>
+        <v>19022935</v>
       </c>
       <c r="D496" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E496" t="s">
         <v>42</v>
@@ -11945,13 +11945,13 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C498" t="n">
-        <v>19019656</v>
+        <v>19023251</v>
       </c>
       <c r="D498" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E498" t="s">
         <v>42</v>
@@ -11971,7 +11971,7 @@
         <v>8</v>
       </c>
       <c r="C499" t="n">
-        <v>19022934</v>
+        <v>19022932</v>
       </c>
       <c r="D499" t="s">
         <v>6</v>
@@ -11991,13 +11991,13 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C500" t="n">
-        <v>19022935</v>
+        <v>19023253</v>
       </c>
       <c r="D500" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E500" t="s">
         <v>42</v>
@@ -12083,10 +12083,10 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C504" t="n">
-        <v>19022932</v>
+        <v>19022178</v>
       </c>
       <c r="D504" t="s">
         <v>6</v>
@@ -12129,13 +12129,13 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C506" t="n">
-        <v>19015559</v>
+        <v>19005847</v>
       </c>
       <c r="D506" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E506" t="s">
         <v>42</v>
@@ -12451,13 +12451,13 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C520" t="n">
-        <v>19015558</v>
+        <v>19019656</v>
       </c>
       <c r="D520" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E520" t="s">
         <v>42</v>
@@ -12566,13 +12566,13 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C525" t="n">
-        <v>19022181</v>
+        <v>19015558</v>
       </c>
       <c r="D525" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E525" t="s">
         <v>42</v>
@@ -12612,13 +12612,13 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C527" t="n">
-        <v>19022178</v>
+        <v>19023254</v>
       </c>
       <c r="D527" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E527" t="s">
         <v>42</v>
